--- a/biology/Zoologie/Constrictor_(film)/Constrictor_(film).xlsx
+++ b/biology/Zoologie/Constrictor_(film)/Constrictor_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constrictor (thaï : โบอา งูยักษ์ / Boa... Gnuu Yak !) est un film d'horreur thaïlandais réalisé par Chaninton Muangsuwan, sorti en 2006.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Khin, Soet ...Phrae et Sida, de jeunes étudiants, partent en montgolfière  survoler l'épaisse forêt tropicale du parc national de Khao Yai afin de retrouver leur ami Pana, un jeune photographe qui vient de disparaître. Go, qui a le vertige, préfère rester au sol et promet de les aider. Les jeunes aventuriers sont pris dans une violente tempête et atterrissent en catastrophe dans les arbres au milieu de la jungle. Leur ballon est détruit. Ils se réfugient dans une grotte. Ils découvrent des gravures rupestres et un très ancien sanctuaire mais aussi le protecteur des lieux, un gigantesque serpent qui les attaque. Ils doivent fuir dans la forêt pour essayer d'échapper au terrible monstre...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : โบอา งูยักษ์
 Titre français : Constrictor
@@ -553,7 +569,7 @@
 Musique : Phatai Puangjeen
 Producteur : Manop Udomden
 Producteurs associés : Tean Pornsuvee et Toy Supawan
-Société de distribution : Sahamongkolfilm Co.[1]
+Société de distribution : Sahamongkolfilm Co.
 Pays : Thaïlande
 Genre : Horreur, Aventure, Monstre, Adolescent
 Durée : 95 minutes
@@ -586,14 +602,16 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nophand Boonyai (นพพันธ์ บุญใหญ่) : Khin
 Sittha Lertsrimonkol (Mai Sit tha) (สิทธา เลิศศรีมงคล) : Soet
 Kiratikorn Ratkulthorn (กีรติกร รัตน์กุลธร) : Phrae
 Tawngrak Assawarat(ต้องรัก อัศวรัตน) : Sida
 Phoophan Khannathap (ภูพาน คัญทัพ) : Go
-Pimpan Chalaikupp (พิมพ์พรรณ ชลายนคุปต์) : Nattacha[2]
+Pimpan Chalaikupp (พิมพ์พรรณ ชลายนคุปต์) : Nattacha
 Isika Tangsrichanon (Ying Isika) (ไอศิกา ตั้งศิริชานนท์) :
 Chaiyapuk Puthsatikol (Tom Chaiyapreak) (ชัยพฤกษ์ พฤกษติกุล) :
 Oak Keeraki (กีรติ ศิวะเกื้อ) :</t>
@@ -624,7 +642,9 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Constrictor n'est pas sorti dans les salles de cinéma en France. Il n'est sorti qu'en DVD.</t>
         </is>
